--- a/Assignment Task 3 Test Case.xlsx
+++ b/Assignment Task 3 Test Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anlon\OneDrive\Documents\QUT\CAB301 - Algorithms &amp; Complexity\Assessment Task 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anlon\OneDrive\Documents\GitHub\Group57_DataAlgo_Phase3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{790255F3-D5CB-4D55-AA65-AF28AF0614D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145996AA-CAB8-4FA3-84F2-FC7C0A7B90B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E937972-0132-456B-947E-8F439C3D275F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>CAB301 Program Functionality Testing</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>Fetch the movies that has the highest frequency of borrowing</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>No error is dectected in the program</t>
   </si>
 </sst>
 </file>
@@ -448,108 +454,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,7 +874,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,115 +887,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="22"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="22"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="20" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -997,369 +1003,455 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="16"/>
+      <c r="O7" s="22"/>
     </row>
     <row r="8" spans="1:15" ht="204" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="1"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="N8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="27"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="35"/>
     </row>
     <row r="10" spans="1:15" ht="162" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="1"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25"/>
+      <c r="N10" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="27"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="35"/>
     </row>
     <row r="12" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="1"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
+      <c r="N12" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="37"/>
     </row>
     <row r="13" spans="1:15" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="27"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="35"/>
     </row>
     <row r="14" spans="1:15" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="4" t="s">
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="37"/>
     </row>
     <row r="15" spans="1:15" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="30" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30" t="s">
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="35"/>
     </row>
     <row r="16" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="1"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="N16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="37"/>
     </row>
     <row r="17" spans="1:15" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="35"/>
     </row>
     <row r="18" spans="1:15" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="1"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="N18" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="37"/>
     </row>
     <row r="19" spans="1:15" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="18"/>
+      <c r="G19" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="F5:O5"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
+  <mergeCells count="71">
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A1:O3"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:I19"/>
@@ -1372,6 +1464,11 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J17:K17"/>
+    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:F15"/>
@@ -1383,42 +1480,6 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="C4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
